--- a/TABLAS.xlsx
+++ b/TABLAS.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmm02\Dropbox (Forvis Mazars Spain)\Implemenación R\Funciones R\PKTFUNC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmm02\Forvis Mazars Spain Dropbox\Jorge Mallo\Implemenación R\Funciones R\PKTFUNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754535B-56E2-4EFA-9954-8C80DCC69809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FABB3CE-8B9E-4E3D-BBCB-284504F2DE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERM2020_1OIND" sheetId="1" r:id="rId1"/>
     <sheet name="PERM2020_2OIND" sheetId="2" r:id="rId2"/>
     <sheet name="PERM2020_1OCOL" sheetId="3" r:id="rId3"/>
     <sheet name="PERM2020_2OCOL" sheetId="4" r:id="rId4"/>
+    <sheet name="PERM2000_CART" sheetId="5" r:id="rId5"/>
+    <sheet name="PERM2000_NEWCONTR" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
     <t>FactorMujer</t>
   </si>
@@ -2609,9 +2611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A6521A-6E86-4710-94FA-6909D538614F}">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7028,7 +7028,7 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E122"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9230,4 +9230,4182 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BA0EFD-E315-414B-A79D-D128D3648E2A}">
+  <dimension ref="A1:E122"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6.4870000000000001</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.633</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.221</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.254</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.247</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.223</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.108</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.216</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.193</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.185</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1987</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.247</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1985</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.153</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1984</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1983</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.224</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1979</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.143</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.253</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1978</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.222</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.254</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>1975</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>1974</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.448</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1971</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.466</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>1970</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.429</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.387</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.373</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>1966</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.407</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>1965</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>1964</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.347</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>1963</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="D39" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>1962</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D40" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>1961</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.571</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="D41" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>1960</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.667</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>1959</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D43" s="2">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>1958</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.919</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D44" s="2">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>1957</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2.016</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>1956</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>1955</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>1954</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>1953</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>1952</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2.823</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>1951</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3.2919999999999998</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>1949</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4.1340000000000003</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>1948</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4.5019999999999998</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1.631</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>1947</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5.3719999999999999</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1946</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5.6950000000000003</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2.0369999999999999</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1945</v>
+      </c>
+      <c r="B57" s="2">
+        <v>6.1059999999999999</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2.1949999999999998</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1944</v>
+      </c>
+      <c r="B58" s="2">
+        <v>6.5179999999999998</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2.286</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1943</v>
+      </c>
+      <c r="B59" s="2">
+        <v>7.0789999999999997</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1942</v>
+      </c>
+      <c r="B60" s="2">
+        <v>7.7030000000000003</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2.827</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1941</v>
+      </c>
+      <c r="B61" s="2">
+        <v>8.1829999999999998</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1940</v>
+      </c>
+      <c r="B62" s="2">
+        <v>9.1839999999999993</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3.4239999999999999</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>1939</v>
+      </c>
+      <c r="B63" s="2">
+        <v>10.07</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3.7269999999999999</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>1938</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10.875999999999999</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4.133</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1937</v>
+      </c>
+      <c r="B65" s="2">
+        <v>11.747999999999999</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1936</v>
+      </c>
+      <c r="B66" s="2">
+        <v>13.045</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1935</v>
+      </c>
+      <c r="B67" s="2">
+        <v>14.532999999999999</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5.4509999999999996</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>1934</v>
+      </c>
+      <c r="B68" s="2">
+        <v>15.69</v>
+      </c>
+      <c r="C68" s="2">
+        <v>6.0529999999999999</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1933</v>
+      </c>
+      <c r="B69" s="2">
+        <v>17.221</v>
+      </c>
+      <c r="C69" s="2">
+        <v>6.6980000000000004</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1932</v>
+      </c>
+      <c r="B70" s="2">
+        <v>18.968</v>
+      </c>
+      <c r="C70" s="2">
+        <v>7.4329999999999998</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1931</v>
+      </c>
+      <c r="B71" s="2">
+        <v>20.645</v>
+      </c>
+      <c r="C71" s="2">
+        <v>8.4030000000000005</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>1930</v>
+      </c>
+      <c r="B72" s="2">
+        <v>22.27</v>
+      </c>
+      <c r="C72" s="2">
+        <v>9.33</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>1929</v>
+      </c>
+      <c r="B73" s="2">
+        <v>24.428999999999998</v>
+      </c>
+      <c r="C73" s="2">
+        <v>10.683999999999999</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>1928</v>
+      </c>
+      <c r="B74" s="2">
+        <v>27.259</v>
+      </c>
+      <c r="C74" s="2">
+        <v>12.013</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>1927</v>
+      </c>
+      <c r="B75" s="2">
+        <v>30.295999999999999</v>
+      </c>
+      <c r="C75" s="2">
+        <v>13.893000000000001</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1926</v>
+      </c>
+      <c r="B76" s="2">
+        <v>33.69</v>
+      </c>
+      <c r="C76" s="2">
+        <v>15.897</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>1925</v>
+      </c>
+      <c r="B77" s="2">
+        <v>37.286000000000001</v>
+      </c>
+      <c r="C77" s="2">
+        <v>18.248999999999999</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1.24E-2</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>1924</v>
+      </c>
+      <c r="B78" s="2">
+        <v>40.933999999999997</v>
+      </c>
+      <c r="C78" s="2">
+        <v>21.048999999999999</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.21E-2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>1923</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44.856999999999999</v>
+      </c>
+      <c r="C79" s="2">
+        <v>24.341000000000001</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>1922</v>
+      </c>
+      <c r="B80" s="2">
+        <v>49.256</v>
+      </c>
+      <c r="C80" s="2">
+        <v>27.849</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>1921</v>
+      </c>
+      <c r="B81" s="2">
+        <v>54.411000000000001</v>
+      </c>
+      <c r="C81" s="2">
+        <v>32.055999999999997</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>1920</v>
+      </c>
+      <c r="B82" s="2">
+        <v>59.677999999999997</v>
+      </c>
+      <c r="C82" s="2">
+        <v>37.497999999999998</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B83" s="2">
+        <v>66.055999999999997</v>
+      </c>
+      <c r="C83" s="2">
+        <v>43.054000000000002</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1918</v>
+      </c>
+      <c r="B84" s="2">
+        <v>72.769000000000005</v>
+      </c>
+      <c r="C84" s="2">
+        <v>48.1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B85" s="2">
+        <v>78.956999999999994</v>
+      </c>
+      <c r="C85" s="2">
+        <v>54.719000000000001</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>1916</v>
+      </c>
+      <c r="B86" s="2">
+        <v>84.61</v>
+      </c>
+      <c r="C86" s="2">
+        <v>62.984000000000002</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>1915</v>
+      </c>
+      <c r="B87" s="2">
+        <v>92.858999999999995</v>
+      </c>
+      <c r="C87" s="2">
+        <v>71.238</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>1914</v>
+      </c>
+      <c r="B88" s="2">
+        <v>102.503</v>
+      </c>
+      <c r="C88" s="2">
+        <v>79.091999999999999</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>1913</v>
+      </c>
+      <c r="B89" s="2">
+        <v>110.684</v>
+      </c>
+      <c r="C89" s="2">
+        <v>88.703999999999994</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>1912</v>
+      </c>
+      <c r="B90" s="2">
+        <v>120.76300000000001</v>
+      </c>
+      <c r="C90" s="2">
+        <v>98.128</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>1911</v>
+      </c>
+      <c r="B91" s="2">
+        <v>132.697</v>
+      </c>
+      <c r="C91" s="2">
+        <v>109.289</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>1910</v>
+      </c>
+      <c r="B92" s="2">
+        <v>145.57499999999999</v>
+      </c>
+      <c r="C92" s="2">
+        <v>121.86799999999999</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E92" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B93" s="2">
+        <v>158.96600000000001</v>
+      </c>
+      <c r="C93" s="2">
+        <v>135.53899999999999</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E93" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>1908</v>
+      </c>
+      <c r="B94" s="2">
+        <v>174.31299999999999</v>
+      </c>
+      <c r="C94" s="2">
+        <v>150.14699999999999</v>
+      </c>
+      <c r="D94" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E94" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>1907</v>
+      </c>
+      <c r="B95" s="2">
+        <v>189.886</v>
+      </c>
+      <c r="C95" s="2">
+        <v>165.61199999999999</v>
+      </c>
+      <c r="D95" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E95" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>1906</v>
+      </c>
+      <c r="B96" s="2">
+        <v>206.827</v>
+      </c>
+      <c r="C96" s="2">
+        <v>183.67099999999999</v>
+      </c>
+      <c r="D96" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E96" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>1905</v>
+      </c>
+      <c r="B97" s="2">
+        <v>223.02600000000001</v>
+      </c>
+      <c r="C97" s="2">
+        <v>202.81</v>
+      </c>
+      <c r="D97" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E97" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>1904</v>
+      </c>
+      <c r="B98" s="2">
+        <v>240.49299999999999</v>
+      </c>
+      <c r="C98" s="2">
+        <v>223.01</v>
+      </c>
+      <c r="D98" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E98" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>1903</v>
+      </c>
+      <c r="B99" s="2">
+        <v>259.327</v>
+      </c>
+      <c r="C99" s="2">
+        <v>244.25200000000001</v>
+      </c>
+      <c r="D99" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>1902</v>
+      </c>
+      <c r="B100" s="2">
+        <v>279.63400000000001</v>
+      </c>
+      <c r="C100" s="2">
+        <v>266.51</v>
+      </c>
+      <c r="D100" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>1901</v>
+      </c>
+      <c r="B101" s="2">
+        <v>302.16199999999998</v>
+      </c>
+      <c r="C101" s="2">
+        <v>290.36900000000003</v>
+      </c>
+      <c r="D101" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B102" s="2">
+        <v>326.505</v>
+      </c>
+      <c r="C102" s="2">
+        <v>312.166</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>1899</v>
+      </c>
+      <c r="B103" s="2">
+        <v>361.19</v>
+      </c>
+      <c r="C103" s="2">
+        <v>342.48899999999998</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>1898</v>
+      </c>
+      <c r="B104" s="2">
+        <v>386.40499999999997</v>
+      </c>
+      <c r="C104" s="2">
+        <v>365.95600000000002</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>1897</v>
+      </c>
+      <c r="B105" s="2">
+        <v>413.38</v>
+      </c>
+      <c r="C105" s="2">
+        <v>389.95699999999999</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B106" s="2">
+        <v>442.23899999999998</v>
+      </c>
+      <c r="C106" s="2">
+        <v>414.47500000000002</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>1895</v>
+      </c>
+      <c r="B107" s="2">
+        <v>473.11200000000002</v>
+      </c>
+      <c r="C107" s="2">
+        <v>439.50200000000001</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>1894</v>
+      </c>
+      <c r="B108" s="2">
+        <v>506.14100000000002</v>
+      </c>
+      <c r="C108" s="2">
+        <v>465.04300000000001</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>1893</v>
+      </c>
+      <c r="B109" s="2">
+        <v>541.47500000000002</v>
+      </c>
+      <c r="C109" s="2">
+        <v>491.11399999999998</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>1892</v>
+      </c>
+      <c r="B110" s="2">
+        <v>579.27599999999995</v>
+      </c>
+      <c r="C110" s="2">
+        <v>518.64800000000002</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>1891</v>
+      </c>
+      <c r="B111" s="2">
+        <v>619.71600000000001</v>
+      </c>
+      <c r="C111" s="2">
+        <v>547.72400000000005</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>1890</v>
+      </c>
+      <c r="B112" s="2">
+        <v>662.97900000000004</v>
+      </c>
+      <c r="C112" s="2">
+        <v>578.43100000000004</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>1889</v>
+      </c>
+      <c r="B113" s="2">
+        <v>709.26199999999994</v>
+      </c>
+      <c r="C113" s="2">
+        <v>610.85900000000004</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>1888</v>
+      </c>
+      <c r="B114" s="2">
+        <v>758.77599999999995</v>
+      </c>
+      <c r="C114" s="2">
+        <v>645.10599999999999</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>1887</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>1886</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>1885</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>1884</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>1883</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>1882</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>1881</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>1880</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD74C054-CB0F-45CF-A768-80AA2EE6837A}">
+  <dimension ref="A1:E122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.742</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.2149999999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.218</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.191</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.106</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1987</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.219</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1985</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1984</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.156</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1983</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.182</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.871</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1979</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.224</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1978</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.139</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>1975</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>1974</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1971</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.298</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>1970</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.252</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.315</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>1966</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>1965</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.222</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>1964</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>1963</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>1962</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>1961</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.391</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>1960</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.476</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>1959</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.587</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.496</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>1958</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.698</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>1957</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.784</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.626</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>1956</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>1955</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.753</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>1954</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>1953</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>1952</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>1951</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2.9140000000000001</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3.2810000000000001</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>1949</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3.673</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.385</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>1948</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4.0010000000000003</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>1947</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4.7729999999999997</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1.704</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1946</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5.0609999999999999</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1945</v>
+      </c>
+      <c r="B57" s="2">
+        <v>5.4450000000000003</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1944</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5.8120000000000003</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1943</v>
+      </c>
+      <c r="B59" s="2">
+        <v>6.3129999999999997</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1942</v>
+      </c>
+      <c r="B60" s="2">
+        <v>6.8689999999999998</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1941</v>
+      </c>
+      <c r="B61" s="2">
+        <v>7.298</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2.7269999999999999</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1940</v>
+      </c>
+      <c r="B62" s="2">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>1939</v>
+      </c>
+      <c r="B63" s="2">
+        <v>9.0139999999999993</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>1938</v>
+      </c>
+      <c r="B64" s="2">
+        <v>9.7349999999999994</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3.6989999999999998</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1937</v>
+      </c>
+      <c r="B65" s="2">
+        <v>10.516</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3.9340000000000002</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1936</v>
+      </c>
+      <c r="B66" s="2">
+        <v>11.676</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1935</v>
+      </c>
+      <c r="B67" s="2">
+        <v>13.03</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4.8869999999999996</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>1934</v>
+      </c>
+      <c r="B68" s="2">
+        <v>14.067</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5.4269999999999996</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1933</v>
+      </c>
+      <c r="B69" s="2">
+        <v>15.44</v>
+      </c>
+      <c r="C69" s="2">
+        <v>6.0049999999999999</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1932</v>
+      </c>
+      <c r="B70" s="2">
+        <v>17.004999999999999</v>
+      </c>
+      <c r="C70" s="2">
+        <v>6.6639999999999997</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1931</v>
+      </c>
+      <c r="B71" s="2">
+        <v>18.509</v>
+      </c>
+      <c r="C71" s="2">
+        <v>7.5330000000000004</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>1930</v>
+      </c>
+      <c r="B72" s="2">
+        <v>19.977799999999998</v>
+      </c>
+      <c r="C72" s="2">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>1929</v>
+      </c>
+      <c r="B73" s="2">
+        <v>21.914999999999999</v>
+      </c>
+      <c r="C73" s="2">
+        <v>9.5839999999999996</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>1928</v>
+      </c>
+      <c r="B74" s="2">
+        <v>24.454000000000001</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10.776999999999999</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>1927</v>
+      </c>
+      <c r="B75" s="2">
+        <v>27.178999999999998</v>
+      </c>
+      <c r="C75" s="2">
+        <v>12.462999999999999</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1926</v>
+      </c>
+      <c r="B76" s="2">
+        <v>30.224</v>
+      </c>
+      <c r="C76" s="2">
+        <v>14.262</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>1925</v>
+      </c>
+      <c r="B77" s="2">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="C77" s="2">
+        <v>16.372</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>1924</v>
+      </c>
+      <c r="B78" s="2">
+        <v>36.722000000000001</v>
+      </c>
+      <c r="C78" s="2">
+        <v>18.882999999999999</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>1923</v>
+      </c>
+      <c r="B79" s="2">
+        <v>40.241999999999997</v>
+      </c>
+      <c r="C79" s="2">
+        <v>21.837</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>1922</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44.188000000000002</v>
+      </c>
+      <c r="C80" s="2">
+        <v>24.984000000000002</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>1921</v>
+      </c>
+      <c r="B81" s="2">
+        <v>48.813000000000002</v>
+      </c>
+      <c r="C81" s="2">
+        <v>28.757999999999999</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>1920</v>
+      </c>
+      <c r="B82" s="2">
+        <v>53.537999999999997</v>
+      </c>
+      <c r="C82" s="2">
+        <v>33.64</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B83" s="2">
+        <v>59.26</v>
+      </c>
+      <c r="C83" s="2">
+        <v>38.624000000000002</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1918</v>
+      </c>
+      <c r="B84" s="2">
+        <v>65.281999999999996</v>
+      </c>
+      <c r="C84" s="2">
+        <v>43.151000000000003</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B85" s="2">
+        <v>70.832999999999998</v>
+      </c>
+      <c r="C85" s="2">
+        <v>49.088999999999999</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>1916</v>
+      </c>
+      <c r="B86" s="2">
+        <v>75.905000000000001</v>
+      </c>
+      <c r="C86" s="2">
+        <v>56.503999999999998</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>1915</v>
+      </c>
+      <c r="B87" s="2">
+        <v>83.305000000000007</v>
+      </c>
+      <c r="C87" s="2">
+        <v>63.908000000000001</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>1914</v>
+      </c>
+      <c r="B88" s="2">
+        <v>91.956000000000003</v>
+      </c>
+      <c r="C88" s="2">
+        <v>70.954999999999998</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>1913</v>
+      </c>
+      <c r="B89" s="2">
+        <v>99.296000000000006</v>
+      </c>
+      <c r="C89" s="2">
+        <v>79.576999999999998</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>1912</v>
+      </c>
+      <c r="B90" s="2">
+        <v>108.33799999999999</v>
+      </c>
+      <c r="C90" s="2">
+        <v>88.031000000000006</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>1911</v>
+      </c>
+      <c r="B91" s="2">
+        <v>119.04300000000001</v>
+      </c>
+      <c r="C91" s="2">
+        <v>98.045000000000002</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>1910</v>
+      </c>
+      <c r="B92" s="2">
+        <v>130.59700000000001</v>
+      </c>
+      <c r="C92" s="2">
+        <v>109.32899999999999</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B93" s="2">
+        <v>142.61000000000001</v>
+      </c>
+      <c r="C93" s="2">
+        <v>121.59399999999999</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>1908</v>
+      </c>
+      <c r="B94" s="2">
+        <v>156.37799999999999</v>
+      </c>
+      <c r="C94" s="2">
+        <v>134.69900000000001</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1.35E-2</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>1907</v>
+      </c>
+      <c r="B95" s="2">
+        <v>170.34800000000001</v>
+      </c>
+      <c r="C95" s="2">
+        <v>148.572</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>1906</v>
+      </c>
+      <c r="B96" s="2">
+        <v>185.547</v>
+      </c>
+      <c r="C96" s="2">
+        <v>164.773</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>1905</v>
+      </c>
+      <c r="B97" s="2">
+        <v>200.07900000000001</v>
+      </c>
+      <c r="C97" s="2">
+        <v>181.94300000000001</v>
+      </c>
+      <c r="D97" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E97" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>1904</v>
+      </c>
+      <c r="B98" s="2">
+        <v>215.749</v>
+      </c>
+      <c r="C98" s="2">
+        <v>200.065</v>
+      </c>
+      <c r="D98" s="2">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E98" s="2">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>1903</v>
+      </c>
+      <c r="B99" s="2">
+        <v>232.64400000000001</v>
+      </c>
+      <c r="C99" s="2">
+        <v>219.12100000000001</v>
+      </c>
+      <c r="D99" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>1902</v>
+      </c>
+      <c r="B100" s="2">
+        <v>250.86199999999999</v>
+      </c>
+      <c r="C100" s="2">
+        <v>239.089</v>
+      </c>
+      <c r="D100" s="2">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="E100" s="2">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>1901</v>
+      </c>
+      <c r="B101" s="2">
+        <v>271.072</v>
+      </c>
+      <c r="C101" s="2">
+        <v>260.49299999999999</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E101" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B102" s="2">
+        <v>292.911</v>
+      </c>
+      <c r="C102" s="2">
+        <v>280.04700000000003</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>1899</v>
+      </c>
+      <c r="B103" s="2">
+        <v>324.89</v>
+      </c>
+      <c r="C103" s="2">
+        <v>308.06799999999998</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>1898</v>
+      </c>
+      <c r="B104" s="2">
+        <v>347.57</v>
+      </c>
+      <c r="C104" s="2">
+        <v>329.17599999999999</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>1897</v>
+      </c>
+      <c r="B105" s="2">
+        <v>371.83499999999998</v>
+      </c>
+      <c r="C105" s="2">
+        <v>350.76499999999999</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B106" s="2">
+        <v>397.79300000000001</v>
+      </c>
+      <c r="C106" s="2">
+        <v>372.81900000000002</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>1895</v>
+      </c>
+      <c r="B107" s="2">
+        <v>425.56299999999999</v>
+      </c>
+      <c r="C107" s="2">
+        <v>395.33100000000002</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>1894</v>
+      </c>
+      <c r="B108" s="2">
+        <v>455.27199999999999</v>
+      </c>
+      <c r="C108" s="2">
+        <v>418.30500000000001</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>1893</v>
+      </c>
+      <c r="B109" s="2">
+        <v>487.05500000000001</v>
+      </c>
+      <c r="C109" s="2">
+        <v>441.75599999999997</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>1892</v>
+      </c>
+      <c r="B110" s="2">
+        <v>510.80099999999999</v>
+      </c>
+      <c r="C110" s="2">
+        <v>468.98099999999999</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>1891</v>
+      </c>
+      <c r="B111" s="2">
+        <v>535.70399999999995</v>
+      </c>
+      <c r="C111" s="2">
+        <v>497.88400000000001</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>1890</v>
+      </c>
+      <c r="B112" s="2">
+        <v>561.82100000000003</v>
+      </c>
+      <c r="C112" s="2">
+        <v>528.56799999999998</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>1889</v>
+      </c>
+      <c r="B113" s="2">
+        <v>589.21100000000001</v>
+      </c>
+      <c r="C113" s="2">
+        <v>561.14300000000003</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>1888</v>
+      </c>
+      <c r="B114" s="2">
+        <v>617.93700000000001</v>
+      </c>
+      <c r="C114" s="2">
+        <v>595.72500000000002</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>1887</v>
+      </c>
+      <c r="B115" s="2">
+        <v>648.06399999999996</v>
+      </c>
+      <c r="C115" s="2">
+        <v>632.43899999999996</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>1886</v>
+      </c>
+      <c r="B116" s="2">
+        <v>679.65899999999999</v>
+      </c>
+      <c r="C116" s="2">
+        <v>671.41600000000005</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>1885</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>1884</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>1883</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>1882</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>1881</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>1880</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>